--- a/process/resources/Pages.xlsx
+++ b/process/resources/Pages.xlsx
@@ -913,7 +913,7 @@
     <t xml:space="preserve">Constraint_violated</t>
   </si>
   <si>
-    <t xml:space="preserve">kingdom not folowing setting constraints</t>
+    <t xml:space="preserve">kingdom not following setting constraints</t>
   </si>
   <si>
     <t xml:space="preserve">Royaume ne respectant pas les contraintes de paramétrage</t>
